--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_test.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_test.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6977911427009295</v>
+        <v>0.672655462184874</v>
       </c>
       <c r="C4">
-        <v>0.009830295993255689</v>
+        <v>0.008796248480559155</v>
       </c>
       <c r="D4">
-        <v>0.5678596601681815</v>
+        <v>0.5212953656130154</v>
       </c>
       <c r="E4">
-        <v>0.01052861505203029</v>
+        <v>0.00999633098897168</v>
       </c>
       <c r="F4">
-        <v>0.7029032258064515</v>
+        <v>0.6382857142857143</v>
       </c>
       <c r="G4">
-        <v>0.0192407450068347</v>
+        <v>0.01758418835481479</v>
       </c>
       <c r="H4">
-        <v>0.4794806190235745</v>
+        <v>0.4430869358923629</v>
       </c>
       <c r="I4">
-        <v>0.008357042557224081</v>
+        <v>0.007739828763377865</v>
       </c>
       <c r="J4">
-        <v>0.7961493235763986</v>
+        <v>0.7612289242504499</v>
       </c>
       <c r="K4">
-        <v>0.009721457680892831</v>
+        <v>0.00822534003160813</v>
       </c>
       <c r="L4">
-        <v>0.5974576271186441</v>
+        <v>0.5864705882352941</v>
       </c>
       <c r="M4">
-        <v>0.01305034388105009</v>
+        <v>0.01136028765327912</v>
       </c>
       <c r="N4">
-        <v>0.6337777777777779</v>
+        <v>0.6040776699029126</v>
       </c>
       <c r="O4">
-        <v>0.008454459979379214</v>
+        <v>0.007536393768731275</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7224002186987426</v>
+        <v>0.6775336134453782</v>
       </c>
       <c r="C5">
-        <v>0.009142476263082289</v>
+        <v>0.008797467789915969</v>
       </c>
       <c r="D5">
-        <v>0.5862493270717731</v>
+        <v>0.5252598941014563</v>
       </c>
       <c r="E5">
-        <v>0.009759769259430895</v>
+        <v>0.01007348619952175</v>
       </c>
       <c r="F5">
-        <v>0.6967741935483871</v>
+        <v>0.6225714285714286</v>
       </c>
       <c r="G5">
-        <v>0.01667610039185385</v>
+        <v>0.0148861871507282</v>
       </c>
       <c r="H5">
-        <v>0.5093525096351648</v>
+        <v>0.4565428782625396</v>
       </c>
       <c r="I5">
-        <v>0.009008420356209967</v>
+        <v>0.00936004413231506</v>
       </c>
       <c r="J5">
-        <v>0.8038212281245539</v>
+        <v>0.7608660947533034</v>
       </c>
       <c r="K5">
-        <v>0.008090617397173316</v>
+        <v>0.007603961233514478</v>
       </c>
       <c r="L5">
-        <v>0.6442372881355932</v>
+        <v>0.6158823529411765</v>
       </c>
       <c r="M5">
-        <v>0.01287513395785256</v>
+        <v>0.01210079374285855</v>
       </c>
       <c r="N5">
-        <v>0.6623333333333333</v>
+        <v>0.6181553398058253</v>
       </c>
       <c r="O5">
-        <v>0.008272327523433654</v>
+        <v>0.008830341193152846</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8143388429752068</v>
+        <v>0.8192899408284023</v>
       </c>
       <c r="C6">
-        <v>0.01310182903603607</v>
+        <v>0.01248793883344101</v>
       </c>
       <c r="D6">
-        <v>0.6743744100441207</v>
+        <v>0.6829883762710672</v>
       </c>
       <c r="E6">
-        <v>0.01473021249230999</v>
+        <v>0.01385115176104657</v>
       </c>
       <c r="F6">
-        <v>0.7963636363636362</v>
+        <v>0.8</v>
       </c>
       <c r="G6">
-        <v>0.02641146500785529</v>
+        <v>0.02035094309239671</v>
       </c>
       <c r="H6">
-        <v>0.5973353565079571</v>
+        <v>0.6044870844624782</v>
       </c>
       <c r="I6">
-        <v>0.0159816731264516</v>
+        <v>0.0169820569057797</v>
       </c>
       <c r="J6">
-        <v>0.8821707504660626</v>
+        <v>0.8821397488893122</v>
       </c>
       <c r="K6">
-        <v>0.01295749586718142</v>
+        <v>0.01046983742674379</v>
       </c>
       <c r="L6">
-        <v>0.7200000000000002</v>
+        <v>0.7265384615384616</v>
       </c>
       <c r="M6">
-        <v>0.01904516409832246</v>
+        <v>0.01909503649360278</v>
       </c>
       <c r="N6">
-        <v>0.7454545454545454</v>
+        <v>0.7510256410256408</v>
       </c>
       <c r="O6">
-        <v>0.01217644846956489</v>
+        <v>0.01269711899458359</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8250413223140495</v>
+        <v>0.8279585798816571</v>
       </c>
       <c r="C7">
-        <v>0.01109645654679992</v>
+        <v>0.0117057049694137</v>
       </c>
       <c r="D7">
-        <v>0.6822019777610694</v>
+        <v>0.6870002753990372</v>
       </c>
       <c r="E7">
-        <v>0.01368465862233148</v>
+        <v>0.01435094671997961</v>
       </c>
       <c r="F7">
-        <v>0.7809090909090911</v>
+        <v>0.7753846153846154</v>
       </c>
       <c r="G7">
-        <v>0.02191985647373573</v>
+        <v>0.02187565031796379</v>
       </c>
       <c r="H7">
-        <v>0.6187769001724109</v>
+        <v>0.6259379657281292</v>
       </c>
       <c r="I7">
-        <v>0.01905799694772559</v>
+        <v>0.01667952833164843</v>
       </c>
       <c r="J7">
-        <v>0.8759279377634672</v>
+        <v>0.8744654566179098</v>
       </c>
       <c r="K7">
-        <v>0.01064716673830302</v>
+        <v>0.01074543080524204</v>
       </c>
       <c r="L7">
-        <v>0.7431818181818182</v>
+        <v>0.7588461538461538</v>
       </c>
       <c r="M7">
-        <v>0.02134998296777435</v>
+        <v>0.01714577935236572</v>
       </c>
       <c r="N7">
-        <v>0.7557575757575757</v>
+        <v>0.7643589743589743</v>
       </c>
       <c r="O7">
-        <v>0.01298402474702487</v>
+        <v>0.01187567753583585</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7759259259259257</v>
+        <v>0.7594297520661156</v>
       </c>
       <c r="C8">
-        <v>0.01037087070300224</v>
+        <v>0.008703365741019709</v>
       </c>
       <c r="D8">
-        <v>0.5620487433736006</v>
+        <v>0.5570971407098834</v>
       </c>
       <c r="E8">
-        <v>0.01241062192222853</v>
+        <v>0.0108119884902288</v>
       </c>
       <c r="F8">
-        <v>0.7188888888888887</v>
+        <v>0.7081818181818182</v>
       </c>
       <c r="G8">
-        <v>0.02264123418178121</v>
+        <v>0.01884827595201566</v>
       </c>
       <c r="H8">
-        <v>0.4660437066555745</v>
+        <v>0.4629634220629875</v>
       </c>
       <c r="I8">
-        <v>0.01074555241122105</v>
+        <v>0.01023224801596018</v>
       </c>
       <c r="J8">
-        <v>0.8698712445910626</v>
+        <v>0.8530940716656998</v>
       </c>
       <c r="K8">
-        <v>0.008806048937096467</v>
+        <v>0.007542362293459393</v>
       </c>
       <c r="L8">
-        <v>0.6875</v>
+        <v>0.6672727272727274</v>
       </c>
       <c r="M8">
-        <v>0.01312488756036678</v>
+        <v>0.0130379145755003</v>
       </c>
       <c r="N8">
-        <v>0.6960606060606063</v>
+        <v>0.678961038961039</v>
       </c>
       <c r="O8">
-        <v>0.009232458149827316</v>
+        <v>0.00885938259631136</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7666203703703702</v>
+        <v>0.7636363636363636</v>
       </c>
       <c r="C9">
-        <v>0.008427030866582585</v>
+        <v>0.008350796136305294</v>
       </c>
       <c r="D9">
-        <v>0.5498726385506051</v>
+        <v>0.5523248326195539</v>
       </c>
       <c r="E9">
-        <v>0.01097908623433419</v>
+        <v>0.01017058574323415</v>
       </c>
       <c r="F9">
-        <v>0.7000000000000002</v>
+        <v>0.6900000000000002</v>
       </c>
       <c r="G9">
-        <v>0.01793286581471432</v>
+        <v>0.01663447611836721</v>
       </c>
       <c r="H9">
-        <v>0.4571823054949592</v>
+        <v>0.4632015667518507</v>
       </c>
       <c r="I9">
-        <v>0.01115858291331834</v>
+        <v>0.009438954079565465</v>
       </c>
       <c r="J9">
-        <v>0.8595873322373646</v>
+        <v>0.8465061649983228</v>
       </c>
       <c r="K9">
-        <v>0.006876525482162332</v>
+        <v>0.006824433005996999</v>
       </c>
       <c r="L9">
-        <v>0.681875</v>
+        <v>0.6770909090909091</v>
       </c>
       <c r="M9">
-        <v>0.01452159717030332</v>
+        <v>0.01135207048585773</v>
       </c>
       <c r="N9">
-        <v>0.6868181818181819</v>
+        <v>0.6807792207792207</v>
       </c>
       <c r="O9">
-        <v>0.01008536589418207</v>
+        <v>0.008232256718625708</v>
       </c>
     </row>
   </sheetData>
